--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/01.TraBH/TBH_AnhTuanBG_021224.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2024/Thang12/01.TraBH/TBH_AnhTuanBG_021224.xlsx
@@ -733,6 +733,96 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -750,96 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,8 +1200,8 @@
   </sheetPr>
   <dimension ref="A2:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1329,12 +1329,12 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1385,347 +1385,347 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="36">
         <v>1</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68" t="s">
+      <c r="D13" s="38"/>
+      <c r="E13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="65"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="36">
         <v>2</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66">
+      <c r="A15" s="36">
         <v>3</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66">
+      <c r="A16" s="36">
         <v>4</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68" t="s">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="65"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66">
+      <c r="A17" s="36">
         <v>5</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66">
+      <c r="A18" s="36">
         <v>6</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="65"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66">
+      <c r="A19" s="36">
         <v>7</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="38"/>
+      <c r="E19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="65"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66">
+      <c r="A20" s="36">
         <v>8</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="65"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66">
+      <c r="A21" s="36">
         <v>9</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="39">
         <v>862205051187575</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="65"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66">
+      <c r="A22" s="36">
         <v>10</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="39">
         <v>861881051085679</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68" t="s">
+      <c r="F22" s="37"/>
+      <c r="G22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="65"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="36">
         <v>11</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="69">
+      <c r="C23" s="39">
         <v>862205051185215</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68" t="s">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68" t="s">
+      <c r="F23" s="38"/>
+      <c r="G23" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="65"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="A24" s="36">
         <v>12</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68" t="s">
+      <c r="G24" s="38"/>
+      <c r="H24" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="65"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="36">
         <v>13</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68" t="s">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="65"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="36">
         <v>14</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68" t="s">
+      <c r="F26" s="37"/>
+      <c r="G26" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I26" s="65"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,26 +1746,26 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -1810,19 +1810,19 @@
       <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
@@ -1836,12 +1836,19 @@
       <c r="I35" s="22"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
     </row>
     <row r="76" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
@@ -1851,13 +1858,6 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A2:E5"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
